--- a/Outputfile/example.xlsx
+++ b/Outputfile/example.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,12 +429,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>07:40</t>
+          <t>06:05</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>08:45</t>
+          <t>07:15</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -446,22 +446,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Akasa Air</t>
+          <t>AirAsia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10:05</t>
+          <t>07:35</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>08:45</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>₹ 2,305</t>
+          <t>₹ 2,304</t>
         </is>
       </c>
     </row>
@@ -473,12 +473,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>05:50</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -495,12 +495,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>10:05</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -512,352 +512,792 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IndiGo</t>
+          <t>Akasa Air</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>09:40</t>
+          <t>05:50</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>₹ 2,949</t>
+          <t>₹ 2,305</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Alliance Air</t>
+          <t>AirAsia</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>09:20</t>
+          <t>14:05</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10:45</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>₹ 3,064</t>
+          <t>₹ 2,499</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Vistara</t>
+          <t>AirAsia</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>14:10</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>₹ 3,337</t>
+          <t>₹ 2,499</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Vistara</t>
+          <t>AirAsia</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>19:40</t>
+          <t>16:50</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>₹ 3,358</t>
+          <t>₹ 2,499</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>IndiGo</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>09:40</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>13:05</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>₹ 2,949</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Alliance Air</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>09:35</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>11:15</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>₹ 3,064</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Vistara</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>08:10</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>₹ 3,337</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Vistara</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>18:30</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>19:40</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>₹ 3,358</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>IndiGo</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>09:20</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10:25</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>₹ 3,436</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>IndiGo</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>07:25</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>₹ 3,436</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>IndiGo</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>12:40</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>13:45</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>₹ 3,436</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>IndiGo</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>20:10</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>₹ 3,436</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>IndiGo</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>16:10</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>₹ 3,436</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>IndiGo</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>10:10</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>₹ 3,436</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>IndiGo</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>05:15</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>06:25</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>₹ 3,436</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
           <t>AirAsia</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>05:45</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>21:05</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>22:15</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>₹ 2,411</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>AirAsia</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>19:50</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>₹ 2,411</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>AirAsia</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>19:25</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>20:40</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>₹ 2,411</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>AirAsia</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>14:25</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>15:35</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>₹ 2,411</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>AirAsia</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>11:10</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>12:25</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>₹ 2,411</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Akasa Air</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>16:15</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>17:25</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>₹ 2,502</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Akasa Air</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>21:05</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>22:20</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>₹ 2,502</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Akasa Air</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>09:20</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>₹ 2,557</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>IndiGo</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>10:40</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>₹ 3,102</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Alliance Air</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>07:25</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>09:05</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>₹ 3,218</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>IndiGo</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>07:15</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>₹ 3,370</t>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>08:25</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>₹ 3,499</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>IndiGo</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>17:55</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>₹ 3,499</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>IndiGo</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>₹ 3,499</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>IndiGo</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>22:50</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>23:55</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>₹ 3,499</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>AirAsia</t>
+          <t>IndiGo</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>05:40</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>22:10</t>
+          <t>06:45</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>₹ 2,501</t>
+          <t>₹ 3,499</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>AirAsia</t>
+          <t>IndiGo</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>19:50</t>
+          <t>16:55</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:10</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>₹ 2,501</t>
+          <t>₹ 3,499</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>AirAsia</t>
+          <t>IndiGo</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>21:45</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>23:15</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>₹ 2,501</t>
+          <t>₹ 3,499</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Akasa Air</t>
+          <t>IndiGo</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>17:25</t>
+          <t>22:10</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>₹ 2,502</t>
+          <t>₹ 3,499</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Akasa Air</t>
+          <t>IndiGo</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>21:05</t>
+          <t>23:55</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>22:20</t>
+          <t>01:00</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>₹ 2,502</t>
+          <t>₹ 3,499</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Akasa Air</t>
+          <t>IndiGo</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>09:20</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>₹ 2,502</t>
+          <t>₹ 3,499</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>IndiGo</t>
+          <t>Vistara</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>10:40</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>09:55</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>₹ 3,102</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Alliance Air</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>07:25</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>08:50</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>₹ 3,218</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Vistara</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>20:20</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>21:35</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>₹ 3,491</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Vistara</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>08:50</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>09:55</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
           <t>₹ 3,512</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>AirAsia</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>11:05</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>12:15</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>₹ 3,845</t>
         </is>
       </c>
     </row>
